--- a/data/Eksklusion_lande/Lærernes Pension_eksklusionsliste_lande_isin.xlsx
+++ b/data/Eksklusion_lande/Lærernes Pension_eksklusionsliste_lande_isin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
   <si>
     <t>Land</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>Trinidad And Tobago</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -187,7 +184,7 @@
     <t>['PANAMA NOTAS DEL TESORO 3.75% 17.04.2026', '8,875 PANAMA 30-09-2027', '8.88% Panama Government International Bond 2027', '7,125 PANAMA 29-01-2026', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA 3.75% 16.03.2025', '4,5 PANAMA 16-04-2050', '4.50% Panama Government International Bond 2050', '3,16 PANAMA 23-01-2030', 'REPUBLIC OF PANAMA 3.87% 23.07.2060', '4.50% Panama Government International Bond 2056', 'REPUBLIC OF PANAMA 4.5% 01.04.2056', '2.25% Panama Government International Bond 2032', 'REPUBLIC OF PANAMA 2.252% 29.09.2032', '4.50% Panama Government International Bond 2063', 'REPUBLIC OF PANAMA 4.5% 19.01.2063', '6,4 PANAMA 14-02-2035', 'REPUBLIC OF PANAMA 6.4% 14.02.2035', '6,853 PANAMA 28-03-2054', 'REPUBLIC OF PANAMA 6.853% 28.03.2054', 'REPUBLIC OF PANAMA 6.875% 31.01.2036', 'REPUBLIC OF PANAMA 7.5% 01.03.2031', '8 PANAMA 01-03-2038', 'REPUBLIC OF PANAMA 8% 01.03.2038', 'REPUBLIC OF PANAMA 7.875% 01.03.2057', 'BANCO NACIONAL DE PANAMA 2.5% 11.08.2030']</t>
   </si>
   <si>
-    <t>['3,25 QATAR 02-06-2026 (REGS)', '4,5 QATAR 23-04-2028 (REGS)', '5.10% Qatar Government International Bond 2048', 'STATE OF QATAR 5.103% 23.04.2048', 'STATE OF QATAR 4.817% 14.03.2049', 'STATE OF QATAR 3.4% 16.04.2025', '3,75 QATAR 16-04-2030 (REGS)', '4,4 QATAR 16-04-2050 (REGS)', 'STATE OF QATAR 4.4% 16.04.2050', '2,25 QPETRO 12-07-2031 (REGS)', 'QATAR ENERGY 2.25% 12.07.2031']</t>
+    <t>['3,25 QATAR 02-06-2026 (REGS)', '4,5 QATAR 23-04-2028 (REGS)', '5.10% Qatar Government International Bond 2048', 'STATE OF QATAR 5.103% 23.04.2048', 'STATE OF QATAR 4.817% 14.03.2049', 'STATE OF QATAR 3.4% 16.04.2025', '3,75 QATAR 16-04-2030 (REGS)', '4,4 QATAR 16-04-2050 (REGS)', 'STATE OF QATAR 4.4% 16.04.2050', 'QATAR ENERGY 2.25% 12.07.2031']</t>
   </si>
   <si>
     <t>['4,625 KSA 04-10-2047 (REGS)', '3,75 KSA 21-01-2055 (REGS)', '5,5 KSA 25-10-2032 (REGS)']</t>
@@ -205,7 +202,7 @@
     <t>['Panama', 'Panama Notas del Tesoro', 'PANAMA NOTAS DEL TESORO  ', 'Republic of Panama', '8.88% Panama Government International Bond 2027', 'Panama Government International Bond', '3.75% Panama Government International Bond 2025', 'REPUBLIC OF PANAMA  ', '4.50% Panama Government International Bond 2050', '4.50% Panama Government International Bond 2056', '2.25% Panama Government International Bond 2032', '4.50% Panama Government International Bond 2063', 'Banco Nacional de Panama', 'BANCO NACIONAL DE PANAMA  ']</t>
   </si>
   <si>
-    <t>['State of Qatar', '5.10% Qatar Government International Bond 2048', 'Qatar Government International Bond', 'Qatar', 'STATE OF QATAR  ', 'QatarEnergy', 'QATAR ENERGY  ']</t>
+    <t>['State of Qatar', '5.10% Qatar Government International Bond 2048', 'Qatar Government International Bond', 'Qatar', 'STATE OF QATAR  ', 'QATAR ENERGY  ', 'QatarEnergy']</t>
   </si>
   <si>
     <t>['Kingdom of Saudi Arabia']</t>
@@ -627,16 +624,16 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -646,17 +643,20 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -670,16 +670,16 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -690,16 +690,16 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -713,16 +713,16 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -739,16 +739,16 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -759,16 +759,16 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,16 +782,16 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -805,16 +805,16 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -828,16 +828,16 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -848,16 +848,16 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -871,16 +871,16 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -894,16 +894,16 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -917,16 +917,16 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -940,16 +940,16 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -963,16 +963,16 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -986,16 +986,16 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1009,16 +1009,16 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1035,16 +1035,16 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1061,16 +1061,16 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1084,16 +1084,16 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1107,16 +1107,16 @@
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1127,16 +1127,16 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1150,16 +1150,16 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1173,16 +1173,16 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1196,16 +1196,16 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1219,16 +1219,16 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1239,19 +1239,19 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1265,16 +1265,16 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1285,16 +1285,16 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1305,16 +1305,16 @@
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,16 +1328,16 @@
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1351,16 +1351,16 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
